--- a/medicine/Enfance/Élodie_Balandras/Élodie_Balandras.xlsx
+++ b/medicine/Enfance/Élodie_Balandras/Élodie_Balandras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Balandras</t>
+          <t>Élodie_Balandras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Balandras (née en mars 1981) est une auteure, graphiste et illustratrice française, dans les domaines de la bande dessinée et de la littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Balandras</t>
+          <t>Élodie_Balandras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Mâcon le 8 mars 1981, Élodie Balandras étudie les arts graphiques à l’École Émile-Cohl, à Lyon. Elle devient ensuite illustratrice et graphiste en free lance, dans les domaines de la communication visuelle et de la publicité.
-Elle intervient dans l’édition jeunesse dès 2004. Elle utilise diverses techniques graphiques : crayon, peinture, collage, montage et couleur numérique. Elle publie des romans et travaille aussi comme coloriste de bande dessinée[1].
-Elle intervient également dans les écoles et les médiathèques[2],[3],[4].
-En 2021, Élodie Balandras est invitée à Litt. Jeunesse[5],[6], premier salon francophone de littérature jeunesse du Nord-Ouest américain organisé à Seattle, et y présente lors d'un atelier intergénérationnel son album Un nouveau printemps pour pépé Ours[7].  U
+Elle intervient dans l’édition jeunesse dès 2004. Elle utilise diverses techniques graphiques : crayon, peinture, collage, montage et couleur numérique. Elle publie des romans et travaille aussi comme coloriste de bande dessinée.
+Elle intervient également dans les écoles et les médiathèques.
+En 2021, Élodie Balandras est invitée à Litt. Jeunesse premier salon francophone de littérature jeunesse du Nord-Ouest américain organisé à Seattle, et y présente lors d'un atelier intergénérationnel son album Un nouveau printemps pour pépé Ours.  U
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Balandras</t>
+          <t>Élodie_Balandras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Élodie Balandras a obtenu en 2013 le Prix des Incorruptibles pour Les Poulets guerriers, écrit par Catherine Zarcate et illustré par elle (Syros).
-Elle obtient un Coup de cœur Jeune Public printemps 2019 de l'Académie Charles Cros avec Catherine Zarcate pour Les poulets guerriers[8].
+Elle obtient un Coup de cœur Jeune Public printemps 2019 de l'Académie Charles Cros avec Catherine Zarcate pour Les poulets guerriers.
 Son album Un nouveau printemps pour Pépé Ours où elle publie en tant qu'autrice/ illustratrice aux éditions Didier Jeunesse, est récompensé par le prix Chronos en juin 2021.</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Balandras</t>
+          <t>Élodie_Balandras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[9],[10], dont :
-Auteure et illustratrice
-La Bottine de madame Tordue, Ad libris (2009)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élodie_Balandras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lodie_Balandras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Bottine de madame Tordue, Ad libris (2009)
 Le Fabuleux Voyage de Jonathan sous la baignoire (2010)
 Un dragon dans la maison (2010)
 Le travail, tout un monde ! (2011)
@@ -591,9 +644,43 @@
 Colvert, pirate du Léman (2015)
 Quelle chance ce manque de pot ! (2017)
 L’Œuf de Gygy (2018)
-Un nouveau printemps pour Pépé Ours[7] (2020)
-Seulement illustratrice
-L’Avion de nulle part, Alain Pradet, Magnard jeunesse, 2004
+Un nouveau printemps pour Pépé Ours (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élodie_Balandras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lodie_Balandras</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Seulement illustratrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’Avion de nulle part, Alain Pradet, Magnard jeunesse, 2004
 Vert de peur, Jean-Pierre Haga, Magnard jeunesse, 2005
 Petits contes insolents, collectés par Albena Ivanovitch-Lair, adaptés par Mario Urbanet, Milan jeunesse, 2006
 Li-Wang et l’œuf de phénix, histoire de Pascale Hédelin, in J’apprends à lire no 87, novembre 2006
